--- a/garapro-admin-frontend/public/templates/master_import_template_full.xlsx
+++ b/garapro-admin-frontend/public/templates/master_import_template_full.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DO An\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F91F17-DA35-4D70-94A9-387357149862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AA1A21-7102-40D8-94CA-18F8D9CD1701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Branch" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,15 @@
     <sheet name="Part" sheetId="7" r:id="rId7"/>
     <sheet name="Staff" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Staff!$A$1:$A$4</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
   <si>
     <t>BranchName</t>
   </si>
@@ -47,12 +50,6 @@
     <t>Province</t>
   </si>
   <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -65,18 +62,12 @@
     <t>MaxBookingsPerWindow</t>
   </si>
   <si>
-    <t>MaxConcurrentWip</t>
-  </si>
-  <si>
     <t>Chi nhánh 1</t>
   </si>
   <si>
     <t>Chi nhánh 2</t>
   </si>
   <si>
-    <t>0909000001</t>
-  </si>
-  <si>
     <t>0909000002</t>
   </si>
   <si>
@@ -86,21 +77,6 @@
     <t>cn2@example.com</t>
   </si>
   <si>
-    <t>123 Lê Lợi</t>
-  </si>
-  <si>
-    <t>456 Trần Hưng Đạo</t>
-  </si>
-  <si>
-    <t>Phường A</t>
-  </si>
-  <si>
-    <t>Phường B</t>
-  </si>
-  <si>
-    <t>TP. HCM</t>
-  </si>
-  <si>
     <t>Chi nhánh trung tâm</t>
   </si>
   <si>
@@ -245,9 +221,6 @@
     <t>PartName</t>
   </si>
   <si>
-    <t>Stock</t>
-  </si>
-  <si>
     <t>Bố thắng trước</t>
   </si>
   <si>
@@ -266,18 +239,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>tech01</t>
-  </si>
-  <si>
-    <t>manager01</t>
-  </si>
-  <si>
-    <t>tech01@garage.com</t>
-  </si>
-  <si>
-    <t>manager01@garage.com</t>
-  </si>
-  <si>
     <t>0909000101</t>
   </si>
   <si>
@@ -294,13 +255,43 @@
   </si>
   <si>
     <t>Manager</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Phường Ngũ Hành Sơn</t>
+  </si>
+  <si>
+    <t>26 An Nông</t>
+  </si>
+  <si>
+    <t>Phường Hòa Quý</t>
+  </si>
+  <si>
+    <t>Nhà sáng tác Đà Nẵng</t>
+  </si>
+  <si>
+    <t>0909000001a</t>
+  </si>
+  <si>
+    <t>0900000001</t>
+  </si>
+  <si>
+    <t>0900000002</t>
+  </si>
+  <si>
+    <t>tech03@garage.com</t>
+  </si>
+  <si>
+    <t>manager04@garage.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +303,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -349,16 +348,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -661,13 +667,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -698,96 +719,70 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>30</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>10.1234</v>
-      </c>
-      <c r="H2">
-        <v>106.1234</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>30</v>
       </c>
-      <c r="L2">
+      <c r="J3">
         <v>6</v>
-      </c>
-      <c r="M2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3">
-        <v>10.5678</v>
-      </c>
-      <c r="H3">
-        <v>106.56780000000001</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>30</v>
-      </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
-      <c r="M3">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -799,135 +794,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -935,112 +939,112 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1055,27 +1059,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1083,10 +1094,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1094,10 +1105,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1112,33 +1123,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1146,13 +1165,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1160,13 +1179,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1182,36 +1201,38 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -1219,13 +1240,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
-        <v>58</v>
-      </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -1237,18 +1258,18 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D3">
         <v>250</v>
@@ -1260,18 +1281,18 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -1280,10 +1301,10 @@
         <v>0.8</v>
       </c>
       <c r="F4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1295,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,46 +1329,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1357,69 +1378,62 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>450</v>
       </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>120</v>
       </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>180</v>
-      </c>
-      <c r="D4">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1429,15 +1443,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>76</v>
+      <c r="A1" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1446,65 +1471,95 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="b">
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A4" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{29BFFF7D-F38D-4F94-9515-12AC525C0BAF}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{CCA809C9-292F-4E00-B9F1-D012BF1538B0}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{9BB66560-81BE-4B55-A970-806AC0CC1383}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/garapro-admin-frontend/public/templates/master_import_template_full.xlsx
+++ b/garapro-admin-frontend/public/templates/master_import_template_full.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\DO An\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AA1A21-7102-40D8-94CA-18F8D9CD1701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A15F1-9F89-475E-90A2-E4AEDD102FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Branch" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,14 @@
     <sheet name="Staff" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Staff!$A$1:$A$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Staff!$A$1:$A$3</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
   <si>
     <t>BranchName</t>
   </si>
@@ -239,12 +239,6 @@
     <t>Role</t>
   </si>
   <si>
-    <t>0909000101</t>
-  </si>
-  <si>
-    <t>0909000102</t>
-  </si>
-  <si>
     <t>Nguyễn Văn A</t>
   </si>
   <si>
@@ -272,19 +266,19 @@
     <t>Nhà sáng tác Đà Nẵng</t>
   </si>
   <si>
-    <t>0909000001a</t>
-  </si>
-  <si>
-    <t>0900000001</t>
-  </si>
-  <si>
-    <t>0900000002</t>
-  </si>
-  <si>
     <t>tech03@garage.com</t>
   </si>
   <si>
     <t>manager04@garage.com</t>
+  </si>
+  <si>
+    <t>0909000001</t>
+  </si>
+  <si>
+    <t>0900012345</t>
+  </si>
+  <si>
+    <t>0900012344</t>
   </si>
 </sst>
 </file>
@@ -669,14 +663,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
@@ -692,7 +686,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -725,20 +719,20 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
@@ -757,20 +751,20 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -1443,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,16 +1482,16 @@
         <v>81</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -1511,16 +1505,16 @@
         <v>82</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
         <v>70</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1529,37 +1523,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A4" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <autoFilter ref="A1:A3" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{29BFFF7D-F38D-4F94-9515-12AC525C0BAF}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{CCA809C9-292F-4E00-B9F1-D012BF1538B0}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{9BB66560-81BE-4B55-A970-806AC0CC1383}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CCA809C9-292F-4E00-B9F1-D012BF1538B0}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9BB66560-81BE-4B55-A970-806AC0CC1383}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/garapro-admin-frontend/public/templates/master_import_template_full.xlsx
+++ b/garapro-admin-frontend/public/templates/master_import_template_full.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\DO An\garagepro_admin_frontedn\garapro-admin-frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987A15F1-9F89-475E-90A2-E4AEDD102FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1831926D-447F-46AB-9BC6-99768E1DFA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
   <si>
     <t>BranchName</t>
   </si>
@@ -62,12 +62,6 @@
     <t>MaxBookingsPerWindow</t>
   </si>
   <si>
-    <t>Chi nhánh 1</t>
-  </si>
-  <si>
-    <t>Chi nhánh 2</t>
-  </si>
-  <si>
     <t>0909000002</t>
   </si>
   <si>
@@ -77,12 +71,6 @@
     <t>cn2@example.com</t>
   </si>
   <si>
-    <t>Chi nhánh trung tâm</t>
-  </si>
-  <si>
-    <t>Chi nhánh quận 5</t>
-  </si>
-  <si>
     <t>DayOfWeek</t>
   </si>
   <si>
@@ -140,33 +128,9 @@
     <t>Cleaning</t>
   </si>
   <si>
-    <t>Dịch vụ sửa chữa</t>
-  </si>
-  <si>
-    <t>Bảo dưỡng định kỳ</t>
-  </si>
-  <si>
-    <t>Vệ sinh, làm sạch xe</t>
-  </si>
-  <si>
     <t>CategoryName</t>
   </si>
   <si>
-    <t>Sửa phanh</t>
-  </si>
-  <si>
-    <t>Sửa động cơ</t>
-  </si>
-  <si>
-    <t>Sửa phanh xe hơi</t>
-  </si>
-  <si>
-    <t>Sửa chữa động cơ</t>
-  </si>
-  <si>
-    <t>Kiểm tra toàn bộ xe</t>
-  </si>
-  <si>
     <t>ServiceName</t>
   </si>
   <si>
@@ -179,24 +143,6 @@
     <t>IsAdvanced</t>
   </si>
   <si>
-    <t>Thay bố thắng</t>
-  </si>
-  <si>
-    <t>Thay nhớt</t>
-  </si>
-  <si>
-    <t>Kiểm tra bugi</t>
-  </si>
-  <si>
-    <t>Thay bố thắng xe hơi</t>
-  </si>
-  <si>
-    <t>Thay nhớt tổng hợp</t>
-  </si>
-  <si>
-    <t>Kiểm tra bugi động cơ</t>
-  </si>
-  <si>
     <t>PartCategoryName</t>
   </si>
   <si>
@@ -209,27 +155,12 @@
     <t>Oil &amp; Fluids</t>
   </si>
   <si>
-    <t>Phụ tùng hệ thống phanh</t>
-  </si>
-  <si>
-    <t>Phụ tùng động cơ</t>
-  </si>
-  <si>
-    <t>Dầu nhớt và dung dịch</t>
-  </si>
-  <si>
     <t>PartName</t>
   </si>
   <si>
-    <t>Bố thắng trước</t>
-  </si>
-  <si>
     <t>Bugi NGK</t>
   </si>
   <si>
-    <t>Dầu nhớt 5W30</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -279,6 +210,54 @@
   </si>
   <si>
     <t>0900012344</t>
+  </si>
+  <si>
+    <t>Branch Import 2</t>
+  </si>
+  <si>
+    <t>Branch Import 1</t>
+  </si>
+  <si>
+    <t>Branch From Excel</t>
+  </si>
+  <si>
+    <t>Repair Services</t>
+  </si>
+  <si>
+    <t>Maintenance Services</t>
+  </si>
+  <si>
+    <t>Cleaning Services</t>
+  </si>
+  <si>
+    <t>Example Description</t>
+  </si>
+  <si>
+    <t>New Maintance Child Category Service from Excel</t>
+  </si>
+  <si>
+    <t>New Repair Child Category Service from Excel</t>
+  </si>
+  <si>
+    <t>New Cleaning Child Category Service from Excel</t>
+  </si>
+  <si>
+    <t>New Service for RepairChild Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Service for  Maintance Child Category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Service for  Cleaning Child Category  </t>
+  </si>
+  <si>
+    <t>Part Category Description</t>
+  </si>
+  <si>
+    <t>New Part brake from Parts</t>
+  </si>
+  <si>
+    <t>Oil 5W30</t>
   </si>
 </sst>
 </file>
@@ -664,7 +643,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,8 +654,7 @@
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.140625" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="7" max="8" width="20.28515625" customWidth="1"/>
     <col min="9" max="9" width="22.42578125" customWidth="1"/>
     <col min="10" max="10" width="24.28515625" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" customWidth="1"/>
@@ -717,25 +695,25 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -749,25 +727,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -789,7 +767,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,126 +784,126 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -933,112 +911,112 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1054,7 +1032,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1044,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1077,10 +1055,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1088,10 +1066,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1099,10 +1077,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1118,23 +1096,23 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1145,13 +1123,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1159,13 +1137,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1173,13 +1151,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1195,12 +1173,12 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1"/>
     <col min="2" max="2" width="41.42578125" customWidth="1"/>
     <col min="3" max="3" width="33.7109375" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
@@ -1211,22 +1189,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -1234,16 +1212,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D2">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E2">
         <v>1.5</v>
@@ -1252,21 +1230,21 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1275,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>150</v>
+        <v>3000</v>
       </c>
       <c r="E4">
         <v>0.8</v>
@@ -1298,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1311,58 +1289,58 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1353,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,47 +1365,47 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>450</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>120</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
@@ -1440,7 +1418,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +1434,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1465,10 +1443,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1479,22 +1457,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1502,22 +1480,22 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>

--- a/garapro-admin-frontend/public/templates/master_import_template_full.xlsx
+++ b/garapro-admin-frontend/public/templates/master_import_template_full.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\DO An\garagepro_admin_frontedn\garapro-admin-frontend\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1831926D-447F-46AB-9BC6-99768E1DFA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB67DA44-F727-4EEB-A9B3-CFB8B4FF026D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Branch" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
   <si>
     <t>BranchName</t>
   </si>
@@ -62,202 +62,262 @@
     <t>MaxBookingsPerWindow</t>
   </si>
   <si>
+    <t>DayOfWeek</t>
+  </si>
+  <si>
+    <t>IsOpen</t>
+  </si>
+  <si>
+    <t>OpenTime</t>
+  </si>
+  <si>
+    <t>CloseTime</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>ParentCategoryName</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>ServiceName</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>EstimatedDuration</t>
+  </si>
+  <si>
+    <t>IsAdvanced</t>
+  </si>
+  <si>
+    <t>PartCategoryName</t>
+  </si>
+  <si>
+    <t>Brake Parts</t>
+  </si>
+  <si>
+    <t>Engine Parts</t>
+  </si>
+  <si>
+    <t>Oil &amp; Fluids</t>
+  </si>
+  <si>
+    <t>PartName</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>0900012345</t>
+  </si>
+  <si>
+    <t>0900012344</t>
+  </si>
+  <si>
+    <t>Branch Import 2</t>
+  </si>
+  <si>
+    <t>Branch Import 1</t>
+  </si>
+  <si>
+    <t>Repair Services</t>
+  </si>
+  <si>
+    <t>Maintenance Services</t>
+  </si>
+  <si>
+    <t>Cleaning Services</t>
+  </si>
+  <si>
+    <t>Example Description</t>
+  </si>
+  <si>
+    <t>New Maintance Child Category Service from Excel</t>
+  </si>
+  <si>
+    <t>New Repair Child Category Service from Excel</t>
+  </si>
+  <si>
+    <t>New Cleaning Child Category Service from Excel</t>
+  </si>
+  <si>
+    <t>New Service for RepairChild Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Service for  Maintance Child Category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Service for  Cleaning Child Category  </t>
+  </si>
+  <si>
+    <t>Part Category Description</t>
+  </si>
+  <si>
+    <t>0900011111</t>
+  </si>
+  <si>
+    <t>0900022222</t>
+  </si>
+  <si>
+    <t>tech05@garage.com</t>
+  </si>
+  <si>
+    <t>manager045@garage.com</t>
+  </si>
+  <si>
+    <t>Trần Thị Bi</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn An</t>
+  </si>
+  <si>
+    <t>WarrantyMonths</t>
+  </si>
+  <si>
+    <t>BrandName</t>
+  </si>
+  <si>
+    <t>ModelName</t>
+  </si>
+  <si>
+    <t>BranchName_1</t>
+  </si>
+  <si>
+    <t>Stock_1</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>Camry</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Brake for Honda Accord</t>
+  </si>
+  <si>
+    <t>Brake for Camry</t>
+  </si>
+  <si>
+    <t>Brake for Focus Ford</t>
+  </si>
+  <si>
+    <t>Nha Trang Garage</t>
+  </si>
+  <si>
+    <t>BranchName_2</t>
+  </si>
+  <si>
+    <t>Stock_2</t>
+  </si>
+  <si>
+    <t>Hà Nội Garage</t>
+  </si>
+  <si>
+    <t>Chi nhánh 1</t>
+  </si>
+  <si>
+    <t>0909000001</t>
+  </si>
+  <si>
+    <t>cn1@example.com</t>
+  </si>
+  <si>
+    <t>26 An Nông</t>
+  </si>
+  <si>
+    <t>Phường Ngũ Hành Sơn</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Chi nhánh trung tâm</t>
+  </si>
+  <si>
+    <t>Chi nhánh 2</t>
+  </si>
+  <si>
     <t>0909000002</t>
   </si>
   <si>
-    <t>cn1@example.com</t>
-  </si>
-  <si>
     <t>cn2@example.com</t>
   </si>
   <si>
-    <t>DayOfWeek</t>
-  </si>
-  <si>
-    <t>IsOpen</t>
-  </si>
-  <si>
-    <t>OpenTime</t>
-  </si>
-  <si>
-    <t>CloseTime</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>ParentCategoryName</t>
-  </si>
-  <si>
-    <t>Repair</t>
-  </si>
-  <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>Cleaning</t>
-  </si>
-  <si>
-    <t>CategoryName</t>
-  </si>
-  <si>
-    <t>ServiceName</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>EstimatedDuration</t>
-  </si>
-  <si>
-    <t>IsAdvanced</t>
-  </si>
-  <si>
-    <t>PartCategoryName</t>
-  </si>
-  <si>
-    <t>Brake Parts</t>
-  </si>
-  <si>
-    <t>Engine Parts</t>
-  </si>
-  <si>
-    <t>Oil &amp; Fluids</t>
-  </si>
-  <si>
-    <t>PartName</t>
-  </si>
-  <si>
-    <t>Bugi NGK</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>FullName</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn A</t>
-  </si>
-  <si>
-    <t>Trần Thị B</t>
-  </si>
-  <si>
-    <t>Technician</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Đà Nẵng</t>
-  </si>
-  <si>
-    <t>Phường Ngũ Hành Sơn</t>
-  </si>
-  <si>
-    <t>26 An Nông</t>
+    <t>Nhà sáng tác Đà Nẵng</t>
   </si>
   <si>
     <t>Phường Hòa Quý</t>
   </si>
   <si>
-    <t>Nhà sáng tác Đà Nẵng</t>
-  </si>
-  <si>
-    <t>tech03@garage.com</t>
-  </si>
-  <si>
-    <t>manager04@garage.com</t>
-  </si>
-  <si>
-    <t>0909000001</t>
-  </si>
-  <si>
-    <t>0900012345</t>
-  </si>
-  <si>
-    <t>0900012344</t>
-  </si>
-  <si>
-    <t>Branch Import 2</t>
-  </si>
-  <si>
-    <t>Branch Import 1</t>
-  </si>
-  <si>
-    <t>Branch From Excel</t>
-  </si>
-  <si>
-    <t>Repair Services</t>
-  </si>
-  <si>
-    <t>Maintenance Services</t>
-  </si>
-  <si>
-    <t>Cleaning Services</t>
-  </si>
-  <si>
-    <t>Example Description</t>
-  </si>
-  <si>
-    <t>New Maintance Child Category Service from Excel</t>
-  </si>
-  <si>
-    <t>New Repair Child Category Service from Excel</t>
-  </si>
-  <si>
-    <t>New Cleaning Child Category Service from Excel</t>
-  </si>
-  <si>
-    <t>New Service for RepairChild Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Service for  Maintance Child Category </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Service for  Cleaning Child Category  </t>
-  </si>
-  <si>
-    <t>Part Category Description</t>
-  </si>
-  <si>
-    <t>New Part brake from Parts</t>
-  </si>
-  <si>
-    <t>Oil 5W30</t>
+    <t>Chi nhánh quận 5</t>
   </si>
 </sst>
 </file>
@@ -325,7 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -335,6 +395,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -642,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +721,7 @@
     <col min="11" max="11" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,27 +754,27 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -727,25 +788,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -784,126 +845,126 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -911,112 +972,112 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1031,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1105,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1055,10 +1116,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1066,10 +1127,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1077,10 +1138,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1109,10 +1170,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1123,13 +1184,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1137,13 +1198,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1151,13 +1212,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1173,7 +1234,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,22 +1250,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -1212,10 +1273,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1230,15 +1291,15 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1253,15 +1314,15 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1276,7 +1337,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1289,7 +1350,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,46 +1362,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1350,10 +1411,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,51 +1422,132 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>74</v>
-      </c>
-      <c r="C2">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
-      <c r="C4">
-        <v>1800</v>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1417,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1576,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1443,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1457,22 +1599,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1480,22 +1622,22 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>

--- a/garapro-admin-frontend/public/templates/master_import_template_full.xlsx
+++ b/garapro-admin-frontend/public/templates/master_import_template_full.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB67DA44-F727-4EEB-A9B3-CFB8B4FF026D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA1EFF8-EEC8-430B-B25A-1D79A795F351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Branch" sheetId="1" r:id="rId1"/>
@@ -23,14 +23,14 @@
     <sheet name="Staff" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Staff!$A$1:$A$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Staff!$A$1:$A$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="96">
   <si>
     <t>BranchName</t>
   </si>
@@ -62,6 +62,45 @@
     <t>MaxBookingsPerWindow</t>
   </si>
   <si>
+    <t>Chi nhánh 1</t>
+  </si>
+  <si>
+    <t>0909000001</t>
+  </si>
+  <si>
+    <t>cn1@example.com</t>
+  </si>
+  <si>
+    <t>26 An Nông</t>
+  </si>
+  <si>
+    <t>Phường Ngũ Hành Sơn</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Chi nhánh trung tâm</t>
+  </si>
+  <si>
+    <t>Chi nhánh 2</t>
+  </si>
+  <si>
+    <t>0909000002</t>
+  </si>
+  <si>
+    <t>cn2@example.com</t>
+  </si>
+  <si>
+    <t>Nhà sáng tác Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Phường Hòa Quý</t>
+  </si>
+  <si>
+    <t>Chi nhánh quận 5</t>
+  </si>
+  <si>
     <t>DayOfWeek</t>
   </si>
   <si>
@@ -74,9 +113,18 @@
     <t>CloseTime</t>
   </si>
   <si>
+    <t>Branch Import 1</t>
+  </si>
+  <si>
     <t>Monday</t>
   </si>
   <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
     <t>Tuesday</t>
   </si>
   <si>
@@ -92,19 +140,16 @@
     <t>Saturday</t>
   </si>
   <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
     <t>Sunday</t>
   </si>
   <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>16:00</t>
+    <t>Branch Import 2</t>
   </si>
   <si>
     <t>ParentCategoryName</t>
@@ -113,15 +158,36 @@
     <t>Repair</t>
   </si>
   <si>
+    <t>Repair Services</t>
+  </si>
+  <si>
     <t>Maintenance</t>
   </si>
   <si>
+    <t>Maintenance Services</t>
+  </si>
+  <si>
     <t>Cleaning</t>
   </si>
   <si>
+    <t>Cleaning Services</t>
+  </si>
+  <si>
     <t>CategoryName</t>
   </si>
   <si>
+    <t>New Repair Child Category Service from Excel</t>
+  </si>
+  <si>
+    <t>Example Description</t>
+  </si>
+  <si>
+    <t>New Maintance Child Category Service from Excel</t>
+  </si>
+  <si>
+    <t>New Cleaning Child Category Service from Excel</t>
+  </si>
+  <si>
     <t>ServiceName</t>
   </si>
   <si>
@@ -134,21 +200,90 @@
     <t>IsAdvanced</t>
   </si>
   <si>
+    <t>Branch_1</t>
+  </si>
+  <si>
+    <t>Branch_2</t>
+  </si>
+  <si>
+    <t>Branch_3</t>
+  </si>
+  <si>
+    <t>Branch_4</t>
+  </si>
+  <si>
+    <t>New Service for RepairChild Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Service for  Maintance Child Category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Service for  Cleaning Child Category  </t>
+  </si>
+  <si>
     <t>PartCategoryName</t>
   </si>
   <si>
     <t>Brake Parts</t>
   </si>
   <si>
+    <t>Part Category Description</t>
+  </si>
+  <si>
     <t>Engine Parts</t>
   </si>
   <si>
     <t>Oil &amp; Fluids</t>
   </si>
   <si>
+    <t>BrandName</t>
+  </si>
+  <si>
+    <t>ModelName</t>
+  </si>
+  <si>
     <t>PartName</t>
   </si>
   <si>
+    <t>WarrantyMonths</t>
+  </si>
+  <si>
+    <t>BranchName_1</t>
+  </si>
+  <si>
+    <t>Stock_1</t>
+  </si>
+  <si>
+    <t>BranchName_2</t>
+  </si>
+  <si>
+    <t>Stock_2</t>
+  </si>
+  <si>
+    <t>Accord</t>
+  </si>
+  <si>
+    <t>Brake for Honda Accord</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Camry</t>
+  </si>
+  <si>
+    <t>Brake for Camry</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Brake for Focus Ford</t>
+  </si>
+  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -158,166 +293,31 @@
     <t>Role</t>
   </si>
   <si>
+    <t>0900011111</t>
+  </si>
+  <si>
+    <t>tech05@garage.com</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn An</t>
+  </si>
+  <si>
     <t>Technician</t>
   </si>
   <si>
+    <t>0900022222</t>
+  </si>
+  <si>
+    <t>manager045@garage.com</t>
+  </si>
+  <si>
+    <t>Trần Thị Bi</t>
+  </si>
+  <si>
     <t>Manager</t>
   </si>
   <si>
-    <t>0900012345</t>
-  </si>
-  <si>
-    <t>0900012344</t>
-  </si>
-  <si>
-    <t>Branch Import 2</t>
-  </si>
-  <si>
-    <t>Branch Import 1</t>
-  </si>
-  <si>
-    <t>Repair Services</t>
-  </si>
-  <si>
-    <t>Maintenance Services</t>
-  </si>
-  <si>
-    <t>Cleaning Services</t>
-  </si>
-  <si>
-    <t>Example Description</t>
-  </si>
-  <si>
-    <t>New Maintance Child Category Service from Excel</t>
-  </si>
-  <si>
-    <t>New Repair Child Category Service from Excel</t>
-  </si>
-  <si>
-    <t>New Cleaning Child Category Service from Excel</t>
-  </si>
-  <si>
-    <t>New Service for RepairChild Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Service for  Maintance Child Category </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Service for  Cleaning Child Category  </t>
-  </si>
-  <si>
-    <t>Part Category Description</t>
-  </si>
-  <si>
-    <t>0900011111</t>
-  </si>
-  <si>
-    <t>0900022222</t>
-  </si>
-  <si>
-    <t>tech05@garage.com</t>
-  </si>
-  <si>
-    <t>manager045@garage.com</t>
-  </si>
-  <si>
-    <t>Trần Thị Bi</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn An</t>
-  </si>
-  <si>
-    <t>WarrantyMonths</t>
-  </si>
-  <si>
-    <t>BrandName</t>
-  </si>
-  <si>
-    <t>ModelName</t>
-  </si>
-  <si>
-    <t>BranchName_1</t>
-  </si>
-  <si>
-    <t>Stock_1</t>
-  </si>
-  <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>Accord</t>
-  </si>
-  <si>
-    <t>Camry</t>
-  </si>
-  <si>
-    <t>Toyota</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>Focus</t>
-  </si>
-  <si>
-    <t>Brake for Honda Accord</t>
-  </si>
-  <si>
-    <t>Brake for Camry</t>
-  </si>
-  <si>
-    <t>Brake for Focus Ford</t>
-  </si>
-  <si>
-    <t>Nha Trang Garage</t>
-  </si>
-  <si>
-    <t>BranchName_2</t>
-  </si>
-  <si>
-    <t>Stock_2</t>
-  </si>
-  <si>
-    <t>Hà Nội Garage</t>
-  </si>
-  <si>
-    <t>Chi nhánh 1</t>
-  </si>
-  <si>
-    <t>0909000001</t>
-  </si>
-  <si>
-    <t>cn1@example.com</t>
-  </si>
-  <si>
-    <t>26 An Nông</t>
-  </si>
-  <si>
-    <t>Phường Ngũ Hành Sơn</t>
-  </si>
-  <si>
-    <t>Đà Nẵng</t>
-  </si>
-  <si>
-    <t>Chi nhánh trung tâm</t>
-  </si>
-  <si>
-    <t>Chi nhánh 2</t>
-  </si>
-  <si>
-    <t>0909000002</t>
-  </si>
-  <si>
-    <t>cn2@example.com</t>
-  </si>
-  <si>
-    <t>Nhà sáng tác Đà Nẵng</t>
-  </si>
-  <si>
-    <t>Phường Hòa Quý</t>
-  </si>
-  <si>
-    <t>Chi nhánh quận 5</t>
+    <t>Hyundai</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -398,11 +398,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -415,7 +415,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2007 - 2010">
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
@@ -455,76 +455,16 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office 2007 - 2010">
@@ -532,55 +472,15 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="dk1"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -589,13 +489,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -605,7 +505,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -614,7 +514,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -623,30 +523,19 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -672,7 +561,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -703,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,25 +645,25 @@
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -788,25 +677,25 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -828,7 +717,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,126 +734,126 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -972,112 +861,112 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1092,9 +981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1105,7 +992,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1116,10 +1003,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -1127,10 +1014,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1138,10 +1025,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1156,9 +1043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1170,10 +1055,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1184,13 +1069,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -1198,13 +1083,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -1212,13 +1097,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -1231,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,38 +1130,47 @@
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" customWidth="1"/>
+    <col min="7" max="10" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1291,15 +1185,18 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -1314,15 +1211,18 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -1337,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1349,9 +1249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1362,46 +1260,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1312,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,48 +1328,48 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -1480,13 +1378,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>12</v>
@@ -1494,28 +1392,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E3">
         <v>2000</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -1523,28 +1421,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E4">
         <v>2000</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>7</v>
@@ -1559,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1474,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -1585,10 +1483,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -1599,22 +1497,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -1622,34 +1520,32 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A3" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{CCA809C9-292F-4E00-B9F1-D012BF1538B0}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{9BB66560-81BE-4B55-A970-806AC0CC1383}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7645C303-8FB1-4488-A120-771085741294}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{A1B713AA-FF98-45F9-975E-62E0FFC11B9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>